--- a/SchedulingData/dynamic9/pso/scheduling1_14.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_14.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.6</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>25.84</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="3">
@@ -489,32 +489,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>73.92</v>
+        <v>129.52</v>
       </c>
       <c r="E3" t="n">
-        <v>25.268</v>
+        <v>20.848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>62.02</v>
+        <v>60.98</v>
       </c>
       <c r="E4" t="n">
-        <v>25.968</v>
+        <v>27.052</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>105.52</v>
+        <v>54.88</v>
       </c>
       <c r="E5" t="n">
-        <v>23.248</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73.92</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.56</v>
+        <v>62.02</v>
       </c>
       <c r="E6" t="n">
-        <v>21.924</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>60.98</v>
       </c>
       <c r="D7" t="n">
-        <v>87.3</v>
+        <v>122.66</v>
       </c>
       <c r="E7" t="n">
-        <v>26.4</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.02</v>
+        <v>129.52</v>
       </c>
       <c r="D8" t="n">
-        <v>135.66</v>
+        <v>161.88</v>
       </c>
       <c r="E8" t="n">
-        <v>22.224</v>
+        <v>18.252</v>
       </c>
     </row>
     <row r="9">
@@ -599,74 +599,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>142.9</v>
+        <v>48.6</v>
       </c>
       <c r="E9" t="n">
-        <v>21.48</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>105.52</v>
+        <v>48.6</v>
       </c>
       <c r="D10" t="n">
-        <v>166.52</v>
+        <v>114.18</v>
       </c>
       <c r="E10" t="n">
-        <v>17.788</v>
+        <v>22.872</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>62.02</v>
       </c>
       <c r="D11" t="n">
-        <v>61.62</v>
+        <v>137.92</v>
       </c>
       <c r="E11" t="n">
-        <v>27.008</v>
+        <v>20.508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>166.52</v>
+        <v>137.92</v>
       </c>
       <c r="D12" t="n">
-        <v>215.84</v>
+        <v>199.42</v>
       </c>
       <c r="E12" t="n">
-        <v>13.996</v>
+        <v>17.468</v>
       </c>
     </row>
     <row r="13">
@@ -675,131 +675,131 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61.62</v>
+        <v>122.66</v>
       </c>
       <c r="D13" t="n">
-        <v>109.42</v>
+        <v>166.24</v>
       </c>
       <c r="E13" t="n">
-        <v>22.868</v>
+        <v>20.276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>199.42</v>
       </c>
       <c r="D14" t="n">
-        <v>63.4</v>
+        <v>301.62</v>
       </c>
       <c r="E14" t="n">
-        <v>25.86</v>
+        <v>13.828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>142.9</v>
+        <v>166.24</v>
       </c>
       <c r="D15" t="n">
-        <v>194.78</v>
+        <v>214.76</v>
       </c>
       <c r="E15" t="n">
-        <v>17.432</v>
+        <v>17.064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>194.78</v>
+        <v>161.88</v>
       </c>
       <c r="D16" t="n">
-        <v>234.98</v>
+        <v>215.62</v>
       </c>
       <c r="E16" t="n">
-        <v>14.052</v>
+        <v>14.508</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>109.42</v>
+        <v>215.62</v>
       </c>
       <c r="D17" t="n">
-        <v>158.8</v>
+        <v>270.16</v>
       </c>
       <c r="E17" t="n">
-        <v>19.06</v>
+        <v>11.164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>63.4</v>
+        <v>214.76</v>
       </c>
       <c r="D18" t="n">
-        <v>116.2</v>
+        <v>285.26</v>
       </c>
       <c r="E18" t="n">
-        <v>22.2</v>
+        <v>12.144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>135.66</v>
+        <v>54.88</v>
       </c>
       <c r="D19" t="n">
-        <v>177.92</v>
+        <v>121.78</v>
       </c>
       <c r="E19" t="n">
-        <v>19.628</v>
+        <v>22.592</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>215.84</v>
+        <v>121.78</v>
       </c>
       <c r="D20" t="n">
-        <v>264.72</v>
+        <v>192.52</v>
       </c>
       <c r="E20" t="n">
-        <v>11.708</v>
+        <v>19.108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>128.56</v>
+        <v>301.62</v>
       </c>
       <c r="D21" t="n">
-        <v>184.14</v>
+        <v>369.52</v>
       </c>
       <c r="E21" t="n">
-        <v>18.976</v>
+        <v>10.168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>177.92</v>
+        <v>114.18</v>
       </c>
       <c r="D22" t="n">
-        <v>241.24</v>
+        <v>180.98</v>
       </c>
       <c r="E22" t="n">
-        <v>16.416</v>
+        <v>18.792</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>158.8</v>
+        <v>285.26</v>
       </c>
       <c r="D23" t="n">
-        <v>209.4</v>
+        <v>348.84</v>
       </c>
       <c r="E23" t="n">
-        <v>14.64</v>
+        <v>9.856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>184.14</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>235.74</v>
+        <v>70.28</v>
       </c>
       <c r="E24" t="n">
-        <v>15.936</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>234.98</v>
+        <v>70.28</v>
       </c>
       <c r="D25" t="n">
-        <v>283.56</v>
+        <v>154.2</v>
       </c>
       <c r="E25" t="n">
-        <v>11.324</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="26">
@@ -922,112 +922,112 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>283.56</v>
+        <v>180.98</v>
       </c>
       <c r="D26" t="n">
-        <v>354.4</v>
+        <v>238.68</v>
       </c>
       <c r="E26" t="n">
-        <v>7.84</v>
+        <v>14.652</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>116.2</v>
+        <v>238.68</v>
       </c>
       <c r="D27" t="n">
-        <v>183.9</v>
+        <v>290.6</v>
       </c>
       <c r="E27" t="n">
-        <v>18.56</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>235.74</v>
+        <v>192.52</v>
       </c>
       <c r="D28" t="n">
-        <v>281.62</v>
+        <v>257.22</v>
       </c>
       <c r="E28" t="n">
-        <v>12.968</v>
+        <v>15.728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>183.9</v>
+        <v>257.22</v>
       </c>
       <c r="D29" t="n">
-        <v>275.74</v>
+        <v>313.14</v>
       </c>
       <c r="E29" t="n">
-        <v>14.976</v>
+        <v>12.736</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>275.74</v>
+        <v>313.14</v>
       </c>
       <c r="D30" t="n">
-        <v>344.92</v>
+        <v>360.94</v>
       </c>
       <c r="E30" t="n">
-        <v>11.148</v>
+        <v>8.596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>209.4</v>
+        <v>154.2</v>
       </c>
       <c r="D31" t="n">
-        <v>281.5</v>
+        <v>221.34</v>
       </c>
       <c r="E31" t="n">
-        <v>10.56</v>
+        <v>18.796</v>
       </c>
     </row>
   </sheetData>
